--- a/plantFloorManager/SQL_Database/Dataset02_v2.xlsx
+++ b/plantFloorManager/SQL_Database/Dataset02_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1230948_isep_ipp_pt/Documents/Ficheiros de Conversa do Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://0cms6-my.sharepoint.com/personal/diogopereira_0cms6_onmicrosoft_com/Documents/Faculdade/Código 2º Ano/sem3-pi-2024-g094/plantFloorManager/SQL_Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="579" documentId="8_{61104BE5-191E-4C22-96ED-F0E59940F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18D48237-F4D6-4C60-B886-F684812FB52E}"/>
+  <xr:revisionPtr revIDLastSave="629" documentId="8_{61104BE5-191E-4C22-96ED-F0E59940F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA2C3FEA-9700-4405-91DF-9A9D6EEA0195}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="6" activeTab="8" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -620,6 +620,24 @@
   </si>
   <si>
     <t>insert into Type_Industry(Type_Industry_ID, Type_Industry, Manufacturing_Operation_ID, Workstation_Type_ID) values (1018, 'Metal Industry', 5671, 'Q5478');</t>
+  </si>
+  <si>
+    <t>insert into Country (Country_ID, Country_Name) values (620, 'Portugal');</t>
+  </si>
+  <si>
+    <t>insert into Country (Country_ID, Country_Name) values (203, 'Czechia');</t>
+  </si>
+  <si>
+    <t>insert into Type (ID, Name) values (1, 'Individual');</t>
+  </si>
+  <si>
+    <t>insert into Type (ID, Name) values (2, 'Company');</t>
+  </si>
+  <si>
+    <t>insert into Status(Status) values ('Activated');</t>
+  </si>
+  <si>
+    <t>insert into Status(Status) values ('Deactivated');</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D52B8C6-F495-435D-B053-FB604FC6DD2C}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1170,18 +1188,73 @@
         <v>154</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('",A2,"', '",C2,"', '",B2,"', '",D2,", ",E2," ",F2,", ",G2,"', ",I2,", '",H2,"', 2, 620, 'Activated');")</f>
+        <v>insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('456', 'PT501245987', 'Carvalho &amp; Carvalho, Lda', 'Tv. Augusto Lessa 23, 4200-047 Porto, Portugal', 003518340500, 'idont@care.com', 2, 620, 'Activated');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B10" t="str">
+        <f t="shared" ref="B10:B17" si="0">_xlfn.CONCAT("insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('",A3,"', '",C3,"', '",B3,"', '",D3,", ",E3," ",F3,", ",G3,"', ",I3,", '",H3,"', 2, 620, 'Activated');")</f>
+        <v>insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('785', 'PT501245488', 'Tudo para a casa, Lda', 'R. Dr. Barros 93, 4465-219 São Mamede de Infesta, Portugal', 003518340500, 'me@neither.com', 2, 620, 'Activated');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('657', 'PT501242417', 'Sair de Cena', 'EDIFICIO CRISTAL lj18, R. António Correia de Carvalho 88, 4400-023 Vila Nova de Gaia, Portugal', 003518340500, 'some@email.com', 2, 620, 'Activated');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('",A5,"', '",C5,"', '",B5,"', '",D5,", ",E5," ",F5,", ",G5,"', ",I5,", '",H5,"', 1, 203, 'Activated');")</f>
+        <v>insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('348', 'CZ6451237810', 'U Fleku', 'Křemencova 11, 110 00 Nové Město, Czechia', 004201234567, 'some.random@email.cz', 1, 203, 'Activated');</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15D9EF7-7F05-4929-9267-83A028A1D45D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1303,18 +1376,103 @@
         <v>146</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT("insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('",A2,"', '",B2,"', '",C2,"', 1, ",D2,");")</f>
+        <v>insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('AS12945T22', 'La Belle 22 5l pot', '5l 22 cm aluminium and teflon non stick pot', 1, 130);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" t="str">
+        <f t="shared" ref="B14:B19" si="0">_xlfn.CONCAT("insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('",A3,"', '",B3,"', '",C3,"', 1, ",D3,");")</f>
+        <v>insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('AS12945S22', 'Pro 22 5l pot', '5l 22 cm stainless steel pot', 1, 125);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('AS12945S20', 'Pro 20 3l pot', '3l 20 cm stainless steel pot', 1, 125);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('AS12945S17', 'Pro 17 2l pot', '2l 17 cm stainless steel pot', 1, 125);</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('AS12945P17', 'Pro 17 2l sauce pan', '2l 17 cm stainless steel souce pan', 1, 132);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('AS12945S48', 'Pro 17 lid', '17 cm stainless steel lid', 1, 145);</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Product (Product_ID, Product_Name, Product_Description, Factory_Plant_ID, Family_ID) values ('AS12945G48', 'Pro Clear 17 lid', '17 cm glass lid', 1, 146);</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="str">
+        <f>_xlfn.CONCAT("insert into BOM(Product_ID) values('",A2,"');")</f>
+        <v>insert into BOM(Product_ID) values('AS12945T22');</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="str">
+        <f t="shared" ref="B23:B30" si="1">_xlfn.CONCAT("insert into BOM(Product_ID) values('",A3,"')",)</f>
+        <v>insert into BOM(Product_ID) values('AS12945S22')</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into BOM(Product_ID) values('AS12945S20')</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into BOM(Product_ID) values('AS12945S17')</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into BOM(Product_ID) values('AS12945P17')</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into BOM(Product_ID) values('AS12945S48')</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into BOM(Product_ID) values('AS12945G48')</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A03423-14BC-4B6A-8318-AD0C48152F2D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B11" sqref="B11:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1370,6 +1528,36 @@
         <v>150</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("insert into Product_Family(Product_Family_ID, Family_Description) values (",A2,", '",B2,"');")</f>
+        <v>insert into Product_Family(Product_Family_ID, Family_Description) values (125, 'Pro Line pots');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="str">
+        <f t="shared" ref="B12:B15" si="0">_xlfn.CONCAT("insert into Product_Family(Product_Family_ID, Family_Description) values (",A3,", '",B3,"');")</f>
+        <v>insert into Product_Family(Product_Family_ID, Family_Description) values (130, 'La Belle pots');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Product_Family(Product_Family_ID, Family_Description) values (132, 'Pro Line pans');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Product_Family(Product_Family_ID, Family_Description) values (145, 'Pro Line lids');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Product_Family(Product_Family_ID, Family_Description) values (146, 'Pro Clear lids');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1379,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE470C24-4865-4CED-BECB-9AD0BD718C1F}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1730,7 +1918,7 @@
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="str">
-        <f t="shared" ref="D18:D29" si="1">_xlfn.CONCAT("insert into Customer_Order(Customer_Order_ID, Order_Date, Delivery_Date, Customer_ID) values (",A4,", TO_DATE('15/09/2024', 'DD/MM/YYYY'), TO_DATE('23/09/2024', 'DD/MM/YYYY'), ",B4,");")</f>
+        <f t="shared" ref="D19:D29" si="1">_xlfn.CONCAT("insert into Customer_Order(Customer_Order_ID, Order_Date, Delivery_Date, Customer_ID) values (",A4,", TO_DATE('15/09/2024', 'DD/MM/YYYY'), TO_DATE('23/09/2024', 'DD/MM/YYYY'), ",B4,");")</f>
         <v>insert into Customer_Order(Customer_Order_ID, Order_Date, Delivery_Date, Customer_ID) values (2, TO_DATE('15/09/2024', 'DD/MM/YYYY'), TO_DATE('23/09/2024', 'DD/MM/YYYY'), 657);</v>
       </c>
     </row>
@@ -1775,7 +1963,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1819,7 +2007,7 @@
         <v>42</v>
       </c>
       <c r="G2" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A2,", '",B2,"');")</f>
+        <f t="shared" ref="G2:G19" si="0">_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A2,", '",B2,"');")</f>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5647, 'Disc cutting');</v>
       </c>
     </row>
@@ -1837,7 +2025,7 @@
         <v>42</v>
       </c>
       <c r="G3" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A3,", '",B3,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5649, 'Initial pot base pressing');</v>
       </c>
     </row>
@@ -1855,7 +2043,7 @@
         <v>42</v>
       </c>
       <c r="G4" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A4,", '",B4,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5651, 'Final pot base pressing');</v>
       </c>
     </row>
@@ -1870,7 +2058,7 @@
         <v>61</v>
       </c>
       <c r="G5" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A5,", '",B5,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5653, 'Pot base finishing');</v>
       </c>
     </row>
@@ -1888,7 +2076,7 @@
         <v>42</v>
       </c>
       <c r="G6" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A6,", '",B6,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5655, 'Lid pressing');</v>
       </c>
     </row>
@@ -1903,7 +2091,7 @@
         <v>61</v>
       </c>
       <c r="G7" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A7,", '",B7,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5657, 'Lid finishing');</v>
       </c>
     </row>
@@ -1918,7 +2106,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A8,", '",B8,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5659, 'Pot handles riveting');</v>
       </c>
     </row>
@@ -1933,7 +2121,7 @@
         <v>85</v>
       </c>
       <c r="G9" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A9,", '",B9,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5661, 'Lid handle screw');</v>
       </c>
     </row>
@@ -1948,7 +2136,7 @@
         <v>60</v>
       </c>
       <c r="G10" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A10,", '",B10,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5663, 'Pot test and packaging');</v>
       </c>
     </row>
@@ -1963,7 +2151,7 @@
         <v>63</v>
       </c>
       <c r="G11" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A11,", '",B11,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5665, 'Handle welding');</v>
       </c>
     </row>
@@ -1978,7 +2166,7 @@
         <v>71</v>
       </c>
       <c r="G12" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A12,", '",B12,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5667, 'Lid polishing');</v>
       </c>
     </row>
@@ -1993,7 +2181,7 @@
         <v>71</v>
       </c>
       <c r="G13" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A13,", '",B13,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5669, 'Pot base polishing');</v>
       </c>
     </row>
@@ -2008,7 +2196,7 @@
         <v>70</v>
       </c>
       <c r="G14" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A14,", '",B14,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5671, 'Teflon painting');</v>
       </c>
     </row>
@@ -2026,7 +2214,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A15,", '",B15,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5681, 'Initial pan base pressing');</v>
       </c>
     </row>
@@ -2044,7 +2232,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A16,", '",B16,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5682, 'Final pan base pressing');</v>
       </c>
     </row>
@@ -2059,7 +2247,7 @@
         <v>61</v>
       </c>
       <c r="G17" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A17,", '",B17,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5683, 'Pan base finishing');</v>
       </c>
     </row>
@@ -2074,7 +2262,7 @@
         <v>63</v>
       </c>
       <c r="G18" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A18,", '",B18,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5665, 'Handle welding');</v>
       </c>
     </row>
@@ -2089,7 +2277,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="str">
-        <f>_xlfn.CONCAT("insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (",A19,", '",B19,"');")</f>
+        <f t="shared" si="0"/>
         <v>insert into Manufacturing_Operation(Manufacturing_Operation_ID, Operation_Description) values (5688, 'Pan test and packaging');</v>
       </c>
     </row>
@@ -2190,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DD0435-19DE-4DF5-9218-C7C340215B5E}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2202,7 +2390,7 @@
     <col min="2" max="2" width="27.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2210,108 +2398,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('",A2,"', '",B2,"');")</f>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('A4578', '600t cold forging stamping press');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F14" si="0">_xlfn.CONCAT("insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('",A3,"', '",B3,"');")</f>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('A4588', '600t cold forging precision stamping press');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('A4598', '1000t cold forging precision stamping press');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('S3271', 'Handle rivet');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('K3675', 'Packaging');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('K3676', 'Packaging for large itens');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('C5637', 'Border trimming');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('D9123', 'Spot welding');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('Q5478', 'Teflon application station');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('Q3547', 'Stainless steel polishing');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('T3452', 'Assembly T1');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('G9273', 'Circular glass cutting');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation_Type(Workstation_Type_ID, Workstation_Type) values ('G9274', 'Glass trimming');</v>
       </c>
     </row>
   </sheetData>
@@ -2322,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1118E112-BCDE-455B-843A-6C293EDE0CEE}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2334,7 +2574,7 @@
     <col min="4" max="4" width="30.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2348,7 +2588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>9875</v>
       </c>
@@ -2361,8 +2601,12 @@
       <c r="D2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (",A2,", '",C2,"', '",D2,"', 1, '",B2,"');")</f>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (9875, 'Press 01', '220-630t cold forging press', 1, 'A4578');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>9886</v>
       </c>
@@ -2375,8 +2619,12 @@
       <c r="D3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F22" si="0">_xlfn.CONCAT("insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (",A3,", '",C3,"', '",D3,"', 1, '",B3,"');")</f>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (9886, 'Press 02', '220-630t cold forging press', 1, 'A4578');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9847</v>
       </c>
@@ -2389,8 +2637,12 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (9847, 'Press 03', '220-630t precision cold forging press', 1, 'A4588');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9855</v>
       </c>
@@ -2403,8 +2655,12 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (9855, 'Press 04', '160-1000t precison cold forging press', 1, 'A4588');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>8541</v>
       </c>
@@ -2417,8 +2673,12 @@
       <c r="D6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (8541, 'Rivet 02', 'Rivet station', 1, 'S3271');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8543</v>
       </c>
@@ -2431,8 +2691,12 @@
       <c r="D7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (8543, 'Rivet 03', 'Rivet station', 1, 'S3271');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6814</v>
       </c>
@@ -2445,8 +2709,12 @@
       <c r="D8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (6814, 'Packaging 01', 'Packaging station', 1, 'K3675');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6815</v>
       </c>
@@ -2459,8 +2727,12 @@
       <c r="D9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (6815, 'Packaging 02', 'Packaging station', 1, 'K3675');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>6816</v>
       </c>
@@ -2473,8 +2745,12 @@
       <c r="D10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (6816, 'Packaging 03', 'Packaging station', 1, 'K3675');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6821</v>
       </c>
@@ -2487,8 +2763,12 @@
       <c r="D11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (6821, 'Packaging 04', 'Packaging station', 1, 'K3675');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>6822</v>
       </c>
@@ -2501,8 +2781,12 @@
       <c r="D12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (6822, 'Packaging 05', 'Packaging station', 1, 'K3676');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>8167</v>
       </c>
@@ -2515,8 +2799,12 @@
       <c r="D13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (8167, 'Welding 01', 'Spot welding staion', 1, 'D9123');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>8170</v>
       </c>
@@ -2529,8 +2817,12 @@
       <c r="D14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (8170, 'Welding 02', 'Spot welding staion', 1, 'D9123');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>8171</v>
       </c>
@@ -2543,8 +2835,12 @@
       <c r="D15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (8171, 'Welding 03', 'Spot welding staion', 1, 'D9123');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>7235</v>
       </c>
@@ -2557,8 +2853,12 @@
       <c r="D16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (7235, 'Assembly 01', 'Product assembly station', 1, 'T3452');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7236</v>
       </c>
@@ -2571,8 +2871,12 @@
       <c r="D17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (7236, 'Assembly 02', 'Product assembly station', 1, 'T3452');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>7238</v>
       </c>
@@ -2585,8 +2889,12 @@
       <c r="D18" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (7238, 'Assembly 03', 'Product assembly station', 1, 'T3452');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>5124</v>
       </c>
@@ -2599,8 +2907,12 @@
       <c r="D19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (5124, 'Trimming 01', 'Metal trimming station', 1, 'C5637');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>4123</v>
       </c>
@@ -2613,8 +2925,12 @@
       <c r="D20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (4123, 'Polishing 01', 'Metal polishing station', 1, 'Q3547');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>4124</v>
       </c>
@@ -2627,8 +2943,12 @@
       <c r="D21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (4124, 'Polishing 02', 'Metal polishing station', 1, 'Q3547');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>4125</v>
       </c>
@@ -2640,6 +2960,10 @@
       </c>
       <c r="D22" t="s">
         <v>125</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Workstation(Workstation_ID, Workstation_Name, Workstation_Description, Plant_Floor_ID, Workstation_Type_ID) values (4125, 'Polishing 03', 'Metal polishing station', 1, 'Q3547');</v>
       </c>
     </row>
   </sheetData>
@@ -2652,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D833FD3A-319E-497B-BBC6-9FC6F2F78F3D}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2965,7 +3289,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" t="str">
-        <f t="shared" ref="B25:B44" si="0">_xlfn.CONCAT("insert into Component(Component_ID, Component_Description) values ('",B3,"', '",C3,"');")</f>
+        <f t="shared" ref="B25:B43" si="0">_xlfn.CONCAT("insert into Component(Component_ID, Component_Description) values ('",B3,"', '",C3,"');")</f>
         <v>insert into Component(Component_ID, Component_Description) values ('PN52384R50', '300x300 mm 5mm stainless steel sheet');</v>
       </c>
     </row>
@@ -3085,7 +3409,7 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" t="str">
-        <f t="shared" ref="B48:B72" si="1">_xlfn.CONCAT("insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('",A3,"', '",B3,"', ",D3,");")</f>
+        <f t="shared" ref="B48:B66" si="1">_xlfn.CONCAT("insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('",A3,"', '",B3,"', ",D3,");")</f>
         <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S22', 'PN52384R50', 1);</v>
       </c>
     </row>
@@ -3207,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629B436D-7E6F-45CD-A274-6E2AE1A9129E}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>

--- a/plantFloorManager/SQL_Database/Dataset02_v2.xlsx
+++ b/plantFloorManager/SQL_Database/Dataset02_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://0cms6-my.sharepoint.com/personal/diogopereira_0cms6_onmicrosoft_com/Documents/Faculdade/Código 2º Ano/sem3-pi-2024-g094/plantFloorManager/SQL_Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="629" documentId="8_{61104BE5-191E-4C22-96ED-F0E59940F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA2C3FEA-9700-4405-91DF-9A9D6EEA0195}"/>
+  <xr:revisionPtr revIDLastSave="676" documentId="8_{61104BE5-191E-4C22-96ED-F0E59940F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79AA20D7-2953-46B8-880D-ABF8F5F2275D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="7" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" t="str">
-        <f t="shared" ref="B10:B17" si="0">_xlfn.CONCAT("insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('",A3,"', '",C3,"', '",B3,"', '",D3,", ",E3," ",F3,", ",G3,"', ",I3,", '",H3,"', 2, 620, 'Activated');")</f>
+        <f t="shared" ref="B10:B11" si="0">_xlfn.CONCAT("insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('",A3,"', '",C3,"', '",B3,"', '",D3,", ",E3," ",F3,", ",G3,"', ",I3,", '",H3,"', 2, 620, 'Activated');")</f>
         <v>insert into Customer(Customer_ID, NIF, Name, Address, Mobile_number, Email, type_ID, Country_ID, Status) values ('785', 'PT501245488', 'Tudo para a casa, Lda', 'R. Dr. Barros 93, 4465-219 São Mamede de Infesta, Portugal', 003518340500, 'me@neither.com', 2, 620, 'Activated');</v>
       </c>
     </row>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15D9EF7-7F05-4929-9267-83A028A1D45D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="str">
-        <f t="shared" ref="B23:B30" si="1">_xlfn.CONCAT("insert into BOM(Product_ID) values('",A3,"')",)</f>
+        <f t="shared" ref="B23:B28" si="1">_xlfn.CONCAT("insert into BOM(Product_ID) values('",A3,"')",)</f>
         <v>insert into BOM(Product_ID) values('AS12945S22')</v>
       </c>
     </row>
@@ -2974,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D833FD3A-319E-497B-BBC6-9FC6F2F78F3D}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2985,9 +2985,10 @@
     <col min="1" max="1" width="14.19921875" customWidth="1"/>
     <col min="2" max="2" width="17.73046875" customWidth="1"/>
     <col min="3" max="3" width="32.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3014,8 +3015,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3028,8 +3032,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3042,8 +3049,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3056,8 +3066,11 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3070,8 +3083,11 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3084,8 +3100,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3098,8 +3117,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3112,8 +3134,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3126,8 +3151,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3140,8 +3168,11 @@
       <c r="D11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3154,8 +3185,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3168,8 +3202,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3182,8 +3219,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3197,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3283,247 +3323,307 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" t="str">
-        <f>_xlfn.CONCAT("insert into Component(Component_ID, Component_Description) values ('",B2,"', '",C2,"');")</f>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN12344A21', 'Screw M6 35 mm');</v>
+        <f>_xlfn.CONCAT("insert into Component(Component_ID, Component_Description, Part_ID) values (",F2,", '",C2,"', '",B2,"');")</f>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (1, 'Screw M6 35 mm', 'PN12344A21');</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" t="str">
-        <f t="shared" ref="B25:B43" si="0">_xlfn.CONCAT("insert into Component(Component_ID, Component_Description) values ('",B3,"', '",C3,"');")</f>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN52384R50', '300x300 mm 5mm stainless steel sheet');</v>
+        <f t="shared" ref="B25:B33" si="0">_xlfn.CONCAT("insert into Component(Component_ID, Component_Description, Part_ID) values (",F3,", '",C3,"', '",B3,"');")</f>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (2, '300x300 mm 5mm stainless steel sheet', 'PN52384R50');</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN52384R10', '300x300 mm 1mm stainless steel sheet');</v>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (3, '300x300 mm 1mm stainless steel sheet', 'PN52384R10');</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18544A21', 'Rivet 6 mm');</v>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (4, 'Rivet 6 mm', 'PN18544A21');</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18544C21', 'Stainless steel handle model U6');</v>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (5, 'Stainless steel handle model U6', 'PN18544C21');</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18324C54', 'Stainless steel handle model R12');</v>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (6, 'Stainless steel handle model R12', 'PN18324C54');</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN12344A21', 'Screw M6 35 mm');</v>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (7, 'Screw M6 35 mm', 'PN12344A21');</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN52384R50', '300x300 mm 5mm stainless steel sheet');</v>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (8, '300x300 mm 5mm stainless steel sheet', 'PN52384R50');</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN52384R10', '300x300 mm 1mm stainless steel sheet');</v>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (9, '300x300 mm 1mm stainless steel sheet', 'PN52384R10');</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18544A21', 'Rivet 6 mm');</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18544C21', 'Stainless steel handle model U6');</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18324C51', 'Stainless steel handle model R11');</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN12344A21', 'Screw M6 35 mm');</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN52384R45', '250x250 mm 5mm stainless steel sheet');</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN52384R12', '250x250 mm 1mm stainless steel sheet');</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18544A21', 'Rivet 6 mm');</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18544C21', 'Stainless steel handle model U6');</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" t="str">
-        <f>_xlfn.CONCAT("insert into Component(Component_ID, Component_Description) values ('",B19,"', '",C19,"');")</f>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18324C51', 'Stainless steel handle model R11');</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN52384R45', '250x250 mm 5mm stainless steel sheet');</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Component(Component_ID, Component_Description) values ('PN18324C91', 'Stainless steel handle model S26');</v>
+        <v>insert into Component(Component_ID, Component_Description, Part_ID) values (10, 'Rivet 6 mm', 'PN18544A21');</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" t="str">
-        <f>_xlfn.CONCAT("insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('",A2,"', '",B2,"', ",D2,");")</f>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S22', 'PN12344A21', 1);</v>
+        <f>_xlfn.CONCAT("insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('",B2,"', '",A2,"', ",D2,");")</f>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN12344A21', 'AS12945S22', 1);</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" t="str">
-        <f t="shared" ref="B48:B66" si="1">_xlfn.CONCAT("insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('",A3,"', '",B3,"', ",D3,");")</f>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S22', 'PN52384R50', 1);</v>
+        <f t="shared" ref="B48:B71" si="1">_xlfn.CONCAT("insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('",B3,"', '",A3,"', ",D3,");")</f>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN52384R50', 'AS12945S22', 1);</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S22', 'PN52384R10', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN52384R10', 'AS12945S22', 1);</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S22', 'PN18544A21', 4);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18544A21', 'AS12945S22', 4);</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S22', 'PN18544C21', 2);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18544C21', 'AS12945S22', 2);</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S22', 'PN18324C54', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18324C54', 'AS12945S22', 1);</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S20', 'PN12344A21', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN12344A21', 'AS12945S20', 1);</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S20', 'PN52384R50', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN52384R50', 'AS12945S20', 1);</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S20', 'PN52384R10', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN52384R10', 'AS12945S20', 1);</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S20', 'PN18544A21', 4);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18544A21', 'AS12945S20', 4);</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S20', 'PN18544C21', 2);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18544C21', 'AS12945S20', 2);</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S20', 'PN18324C51', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18324C51', 'AS12945S20', 1);</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S17', 'PN12344A21', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN12344A21', 'AS12945S17', 1);</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S17', 'PN52384R45', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN52384R45', 'AS12945S17', 1);</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S17', 'PN52384R12', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN52384R12', 'AS12945S17', 1);</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S17', 'PN18544A21', 4);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18544A21', 'AS12945S17', 4);</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S17', 'PN18544C21', 2);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18544C21', 'AS12945S17', 2);</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" t="str">
-        <f>_xlfn.CONCAT("insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('",A19,"', '",B19,"', ",D19,");")</f>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945S17', 'PN18324C51', 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18324C51', 'AS12945S17', 1);</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945P17', 'PN52384R45', 1);</v>
+        <f>_xlfn.CONCAT("insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('",B20,"', '",A20,"', ",D20,");")</f>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN52384R45', 'AS12945P17', 1);</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>insert into BOM(Product_ID, Component_ID, Component_Quantity) values ('AS12945P17', 'PN18324C91', 1);</v>
+        <v>insert into BOM_Part(Part_ID, Product_ID, Part_Quantity) values ('PN18324C91', 'AS12945P17', 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B69" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B2,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN12344A21');</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B70" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B3,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN52384R50');</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B71" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B4,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN52384R10');</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B72" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B5,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18544A21');</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B73" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B6,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18544C21');</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B74" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B7,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18324C54');</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B75" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B8,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN12344A21');</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B76" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B9,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN52384R50');</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B77" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B10,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN52384R10');</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B78" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B11,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18544A21');</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B79" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B12,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18544C21');</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B80" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B13,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18324C51');</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B81" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B14,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN12344A21');</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B82" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B15,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN52384R45');</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B83" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B16,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN52384R12');</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B84" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B17,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18544A21');</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B18,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18544C21');</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B86" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B19,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18324C51');</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B87" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B20,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN52384R45');</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B88" t="str">
+        <f>_xlfn.CONCAT("insert into Part(Part_ID) values ('",B21,"');")</f>
+        <v>insert into Part(Part_ID) values ('PN18324C91');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3564,8 +3664,8 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT("insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('",A2,"', ",B2,", ",C2,");")</f>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5647, 1);</v>
+        <f>_xlfn.CONCAT("insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (",A2,", ",B2,", ",C2,");")</f>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5647, 1);</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -3579,8 +3679,8 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E18" si="0">_xlfn.CONCAT("insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('",A3,"', ",B3,", ",C3,");")</f>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5647, 2);</v>
+        <f t="shared" ref="E3:E17" si="0">_xlfn.CONCAT("insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (",A3,", ",B3,", ",C3,");")</f>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5647, 2);</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3595,7 +3695,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5649, 3);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5649, 3);</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -3610,7 +3710,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5651, 4);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5651, 4);</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -3625,7 +3725,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5653, 5);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5653, 5);</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -3640,7 +3740,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5659, 6);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5659, 6);</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -3655,7 +3755,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5669, 7);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5669, 7);</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -3670,7 +3770,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5655, 8);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5655, 8);</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -3685,7 +3785,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5657, 9);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5657, 9);</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -3700,7 +3800,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5661, 10);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5661, 10);</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -3715,7 +3815,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5667, 11);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5667, 11);</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -3730,7 +3830,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('125', 5663, 12);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (125, 5663, 12);</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -3745,7 +3845,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('132', 5681, 1);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (132, 5681, 1);</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -3760,7 +3860,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('132', 5682, 2);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (132, 5682, 2);</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -3775,7 +3875,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('132', 5683, 3);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (132, 5683, 3);</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -3790,7 +3890,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('132', 5665, 4);</v>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (132, 5665, 4);</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -3804,12 +3904,12 @@
         <v>5</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values ('132', 5688, 5);</v>
+        <f>_xlfn.CONCAT("insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (",A18,", ",B18,", ",C18,");")</f>
+        <v>insert into BOO(Product_Family_ID, Manufacturing_Operation_ID, Operation_Order) values (132, 5688, 5);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>